--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H2">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.0371199780754</v>
+        <v>44.57468866666667</v>
       </c>
       <c r="N2">
-        <v>38.0371199780754</v>
+        <v>133.724066</v>
       </c>
       <c r="O2">
-        <v>0.5065297770805687</v>
+        <v>0.5438239100642482</v>
       </c>
       <c r="P2">
-        <v>0.5065297770805687</v>
+        <v>0.5438239100642482</v>
       </c>
       <c r="Q2">
-        <v>32.34710241757468</v>
+        <v>38.84884703399</v>
       </c>
       <c r="R2">
-        <v>32.34710241757468</v>
+        <v>349.6396233059099</v>
       </c>
       <c r="S2">
-        <v>0.5065297770805687</v>
+        <v>0.5438239100642482</v>
       </c>
       <c r="T2">
-        <v>0.5065297770805687</v>
+        <v>0.5438239100642482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H3">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.7279187868561</v>
+        <v>27.876023</v>
       </c>
       <c r="N3">
-        <v>27.7279187868561</v>
+        <v>83.628069</v>
       </c>
       <c r="O3">
-        <v>0.3692450040936296</v>
+        <v>0.3400954281086753</v>
       </c>
       <c r="P3">
-        <v>0.3692450040936296</v>
+        <v>0.3400954281086753</v>
       </c>
       <c r="Q3">
-        <v>23.58006677008172</v>
+        <v>24.295208465535</v>
       </c>
       <c r="R3">
-        <v>23.58006677008172</v>
+        <v>218.656876189815</v>
       </c>
       <c r="S3">
-        <v>0.3692450040936296</v>
+        <v>0.3400954281086753</v>
       </c>
       <c r="T3">
-        <v>0.3692450040936296</v>
+        <v>0.3400954281086753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.850408822650599</v>
+        <v>0.8715449999999999</v>
       </c>
       <c r="H4">
-        <v>0.850408822650599</v>
+        <v>2.614635</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.32851288627816</v>
+        <v>9.514586</v>
       </c>
       <c r="N4">
-        <v>9.32851288627816</v>
+        <v>28.543758</v>
       </c>
       <c r="O4">
-        <v>0.1242252188258017</v>
+        <v>0.1160806618270766</v>
       </c>
       <c r="P4">
-        <v>0.1242252188258017</v>
+        <v>0.1160806618270765</v>
       </c>
       <c r="Q4">
-        <v>7.933049660700751</v>
+        <v>8.292389855369999</v>
       </c>
       <c r="R4">
-        <v>7.933049660700751</v>
+        <v>74.63150869832998</v>
       </c>
       <c r="S4">
-        <v>0.1242252188258017</v>
+        <v>0.1160806618270766</v>
       </c>
       <c r="T4">
-        <v>0.1242252188258017</v>
+        <v>0.1160806618270765</v>
       </c>
     </row>
   </sheetData>
